--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111DEDALUSXXX\Regione_Sardegna\ADTWEB_SISaR_RAS\20.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CEB799-A843-4391-A5DB-E61D8999AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA2D0C-C50A-4759-A24E-B99775EC9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="922">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4696,9 +4691,6 @@
     <t>2.16.840.1.113883.2.9.2.200.4.4.d96f9c67957579d125130137d51254f3060492c85e1e63d9f4e82db2ea6f7bad.74799b3a54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Viene segnalato un errore di connessione al gateway. si chiede di segnalare il problema all'amministratore di sistema. Il flusso applicativo prosegue con la produzione del referto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Codice fiscale non valido </t>
   </si>
   <si>
@@ -4727,6 +4719,12 @@
   </si>
   <si>
     <t>Il sistema offre solo diagnosi strutturate e  codificate secondo il dizionario ICD9CM</t>
+  </si>
+  <si>
+    <t>Si procede alla bonifica dei dati tramite intervento manuale e ritrasmissione del documento.</t>
+  </si>
+  <si>
+    <t>Il documento viene ritrasmesso automaticamente.</t>
   </si>
 </sst>
 </file>
@@ -5067,7 +5065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5171,6 +5169,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5192,52 +5208,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7703,10 +7673,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C376" sqref="C376"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7744,14 +7714,14 @@
       <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>850</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -7769,14 +7739,14 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>847</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="46"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -7794,12 +7764,12 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -7818,12 +7788,12 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>849</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="46"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -7841,8 +7811,8 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -8129,179 +8099,179 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="58" customFormat="1" ht="145.80000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="49">
+    <row r="15" spans="1:20" ht="145.80000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="17">
         <v>6</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="20">
         <v>45205</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="58" customFormat="1" ht="177.6" customHeight="1" thickBot="1">
-      <c r="A16" s="49">
+    <row r="16" spans="1:20" ht="177.6" customHeight="1" thickBot="1">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="20">
         <v>45205</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="58" customFormat="1" ht="151.80000000000001" customHeight="1">
-      <c r="A17" s="49">
+    <row r="17" spans="1:20" ht="151.80000000000001" customHeight="1">
+      <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="20">
         <v>45208</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="58" customFormat="1" ht="160.80000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="49">
+    <row r="18" spans="1:20" ht="160.80000000000001" customHeight="1" thickBot="1">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="20">
         <v>45208</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="s">
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8883,55 +8853,55 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="58" customFormat="1" ht="178.8" customHeight="1" thickBot="1">
-      <c r="A36" s="49">
+    <row r="36" spans="1:20" ht="178.8" customHeight="1" thickBot="1">
+      <c r="A36" s="17">
         <v>29</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="20">
         <v>45208</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="38" t="s">
         <v>864</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="38" t="s">
         <v>865</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54" t="s">
+      <c r="K36" s="22"/>
+      <c r="L36" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="M36" s="54" t="s">
+      <c r="M36" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N36" s="40"/>
+      <c r="O36" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N36" s="62" t="s">
-        <v>910</v>
-      </c>
-      <c r="O36" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="57" t="s">
+      <c r="P36" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8963,7 +8933,9 @@
         <v>869</v>
       </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
+      <c r="P37" s="22" t="s">
+        <v>869</v>
+      </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
       <c r="S37" s="24"/>
@@ -8999,7 +8971,9 @@
         <v>870</v>
       </c>
       <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
+      <c r="P38" s="22" t="s">
+        <v>870</v>
+      </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
       <c r="S38" s="24"/>
@@ -9177,55 +9151,55 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="58" customFormat="1" ht="144.6" thickBot="1">
-      <c r="A44" s="49">
+    <row r="44" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A44" s="17">
         <v>37</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="20">
         <v>45208</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="38" t="s">
         <v>868</v>
       </c>
-      <c r="H44" s="53" t="s">
+      <c r="H44" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54" t="s">
+      <c r="K44" s="22"/>
+      <c r="L44" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="M44" s="54" t="s">
+      <c r="M44" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N44" s="40"/>
+      <c r="O44" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="62" t="s">
-        <v>910</v>
-      </c>
-      <c r="O44" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="57" t="s">
+      <c r="P44" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9469,49 +9443,49 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="58" customFormat="1" ht="58.2" thickBot="1">
-      <c r="A52" s="49">
+    <row r="52" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A52" s="17">
         <v>45</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54" t="s">
+      <c r="K52" s="22"/>
+      <c r="L52" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="M52" s="54" t="s">
+      <c r="M52" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="N52" s="62" t="s">
-        <v>870</v>
-      </c>
-      <c r="O52" s="54" t="s">
+      <c r="N52" s="40"/>
+      <c r="O52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="55" t="s">
+      <c r="P52" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="S52" s="56"/>
-      <c r="T52" s="57" t="s">
+      <c r="S52" s="24"/>
+      <c r="T52" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10071,667 +10045,667 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="58" customFormat="1" ht="1.2" customHeight="1" thickBot="1">
-      <c r="A69" s="49">
+    <row r="69" spans="1:20" ht="1.2" customHeight="1" thickBot="1">
+      <c r="A69" s="17">
         <v>62</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A70" s="49">
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A70" s="17">
         <v>63</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="64" t="s">
+      <c r="E70" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="20">
         <v>45209</v>
       </c>
-      <c r="G70" s="53" t="s">
+      <c r="G70" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="I70" s="53" t="s">
+      <c r="I70" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="J70" s="54" t="s">
+      <c r="J70" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54" t="s">
+      <c r="K70" s="22"/>
+      <c r="L70" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="M70" s="54" t="s">
+      <c r="M70" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54" t="s">
+      <c r="N70" s="22"/>
+      <c r="O70" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="P70" s="54" t="s">
+      <c r="P70" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A71" s="17">
+        <v>64</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="115.2">
+      <c r="A72" s="17">
+        <v>65</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P72" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A71" s="49">
-        <v>64</v>
-      </c>
-      <c r="B71" s="50" t="s">
+      <c r="Q72" s="22"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A73" s="17">
+        <v>66</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C73" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F71" s="52">
+      <c r="D73" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="20">
         <v>45209</v>
       </c>
-      <c r="G71" s="53" t="s">
-        <v>879</v>
-      </c>
-      <c r="H71" s="53" t="s">
-        <v>877</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>878</v>
-      </c>
-      <c r="J71" s="54" t="s">
+      <c r="G73" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="J73" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54" t="s">
+      <c r="K73" s="22"/>
+      <c r="L73" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M71" s="54" t="s">
+      <c r="M73" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N71" s="54" t="s">
-        <v>911</v>
-      </c>
-      <c r="O71" s="54" t="s">
+      <c r="N73" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="O73" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="P71" s="54" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" s="58" customFormat="1" ht="115.2">
-      <c r="A72" s="49">
-        <v>65</v>
-      </c>
-      <c r="B72" s="50" t="s">
+      <c r="P73" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A74" s="17">
+        <v>67</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" s="52">
+      <c r="D74" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="20">
         <v>45209</v>
       </c>
-      <c r="G72" s="53" t="s">
-        <v>881</v>
-      </c>
-      <c r="H72" s="53" t="s">
-        <v>880</v>
-      </c>
-      <c r="I72" s="53" t="s">
-        <v>882</v>
-      </c>
-      <c r="J72" s="54" t="s">
+      <c r="G74" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="J74" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54" t="s">
+      <c r="K74" s="22"/>
+      <c r="L74" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="O74" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="M72" s="54" t="s">
+      <c r="P74" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A75" s="17">
+        <v>68</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M75" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54" t="s">
+      <c r="N75" s="22"/>
+      <c r="O75" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P75" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A76" s="17">
+        <v>69</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="J76" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="P72" s="54" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A73" s="49">
-        <v>66</v>
-      </c>
-      <c r="B73" s="50" t="s">
+      <c r="K76" s="22"/>
+      <c r="L76" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P76" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A77" s="17">
+        <v>70</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C77" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="52">
+      <c r="D77" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="20">
         <v>45209</v>
       </c>
-      <c r="G73" s="53" t="s">
-        <v>883</v>
-      </c>
-      <c r="H73" s="53" t="s">
-        <v>884</v>
-      </c>
-      <c r="I73" s="53" t="s">
-        <v>885</v>
-      </c>
-      <c r="J73" s="54" t="s">
+      <c r="G77" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="J77" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54" t="s">
+      <c r="K77" s="22"/>
+      <c r="L77" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A78" s="17">
+        <v>71</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="J78" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M73" s="54" t="s">
+      <c r="K78" s="22"/>
+      <c r="L78" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="115.2">
+      <c r="A79" s="17">
+        <v>72</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="J79" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N73" s="54" t="s">
-        <v>915</v>
-      </c>
-      <c r="O73" s="54" t="s">
+      <c r="K79" s="22"/>
+      <c r="L79" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="P73" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A74" s="49">
-        <v>67</v>
-      </c>
-      <c r="B74" s="50" t="s">
+      <c r="M79" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="115.2">
+      <c r="A80" s="17">
+        <v>73</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C80" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="F74" s="52">
+      <c r="D80" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="20">
         <v>45209</v>
       </c>
-      <c r="G74" s="53" t="s">
-        <v>886</v>
-      </c>
-      <c r="H74" s="53" t="s">
-        <v>887</v>
-      </c>
-      <c r="I74" s="53" t="s">
-        <v>888</v>
-      </c>
-      <c r="J74" s="54" t="s">
+      <c r="G80" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="J80" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54" t="s">
+      <c r="K80" s="22"/>
+      <c r="L80" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="115.8" thickBot="1">
+      <c r="A81" s="17">
+        <v>74</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" s="20">
+        <v>45209</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="J81" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M74" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="N74" s="54" t="s">
-        <v>917</v>
-      </c>
-      <c r="O74" s="54" t="s">
+      <c r="K81" s="22"/>
+      <c r="L81" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="P74" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="56"/>
-      <c r="T74" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A75" s="49">
-        <v>68</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F75" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G75" s="53" t="s">
-        <v>890</v>
-      </c>
-      <c r="H75" s="53" t="s">
-        <v>889</v>
-      </c>
-      <c r="I75" s="53" t="s">
-        <v>891</v>
-      </c>
-      <c r="J75" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="M75" s="54" t="s">
+      <c r="M81" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54" t="s">
+      <c r="N81" s="22"/>
+      <c r="O81" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="P75" s="54" t="s">
+      <c r="P81" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="56"/>
-      <c r="T75" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A76" s="49">
-        <v>69</v>
-      </c>
-      <c r="B76" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G76" s="53" t="s">
-        <v>892</v>
-      </c>
-      <c r="H76" s="53" t="s">
-        <v>893</v>
-      </c>
-      <c r="I76" s="53" t="s">
-        <v>894</v>
-      </c>
-      <c r="J76" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M76" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P76" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="56"/>
-      <c r="T76" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A77" s="49">
-        <v>70</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G77" s="53" t="s">
-        <v>895</v>
-      </c>
-      <c r="H77" s="53" t="s">
-        <v>896</v>
-      </c>
-      <c r="I77" s="53" t="s">
-        <v>897</v>
-      </c>
-      <c r="J77" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M77" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P77" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A78" s="49">
-        <v>71</v>
-      </c>
-      <c r="B78" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="F78" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G78" s="53" t="s">
-        <v>898</v>
-      </c>
-      <c r="H78" s="53" t="s">
-        <v>899</v>
-      </c>
-      <c r="I78" s="53" t="s">
-        <v>900</v>
-      </c>
-      <c r="J78" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M78" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P78" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="56"/>
-      <c r="T78" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" s="58" customFormat="1" ht="115.2">
-      <c r="A79" s="49">
-        <v>72</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>901</v>
-      </c>
-      <c r="H79" s="53" t="s">
-        <v>902</v>
-      </c>
-      <c r="I79" s="53" t="s">
-        <v>903</v>
-      </c>
-      <c r="J79" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M79" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P79" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="56"/>
-      <c r="T79" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="58" customFormat="1" ht="115.2">
-      <c r="A80" s="49">
-        <v>73</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F80" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G80" s="53" t="s">
-        <v>904</v>
-      </c>
-      <c r="H80" s="53" t="s">
-        <v>905</v>
-      </c>
-      <c r="I80" s="53" t="s">
-        <v>906</v>
-      </c>
-      <c r="J80" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M80" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P80" s="54" t="s">
-        <v>920</v>
-      </c>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="58" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A81" s="49">
-        <v>74</v>
-      </c>
-      <c r="B81" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="52">
-        <v>45209</v>
-      </c>
-      <c r="G81" s="53" t="s">
-        <v>875</v>
-      </c>
-      <c r="H81" s="53" t="s">
-        <v>874</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>876</v>
-      </c>
-      <c r="J81" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="M81" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="P81" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="57" t="s">
+      <c r="Q81" s="22"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -20731,47 +20705,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:20" s="58" customFormat="1" ht="129.6">
-      <c r="A376" s="49">
+    <row r="376" spans="1:20" ht="129.6">
+      <c r="A376" s="17">
         <v>369</v>
       </c>
-      <c r="B376" s="50" t="s">
+      <c r="B376" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C376" s="50" t="s">
+      <c r="C376" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D376" s="50" t="s">
+      <c r="D376" s="18" t="s">
         <v>777</v>
       </c>
-      <c r="E376" s="59" t="s">
+      <c r="E376" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="F376" s="52">
+      <c r="F376" s="20">
         <v>45209</v>
       </c>
-      <c r="G376" s="53" t="s">
+      <c r="G376" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="H376" s="53" t="s">
+      <c r="H376" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I376" s="53" t="s">
+      <c r="I376" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="J376" s="54" t="s">
+      <c r="J376" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K376" s="54"/>
-      <c r="L376" s="54"/>
-      <c r="M376" s="54"/>
-      <c r="N376" s="54"/>
-      <c r="O376" s="54"/>
-      <c r="P376" s="54"/>
-      <c r="Q376" s="54"/>
-      <c r="R376" s="55"/>
-      <c r="S376" s="56"/>
-      <c r="T376" s="57" t="s">
+      <c r="K376" s="22"/>
+      <c r="L376" s="22"/>
+      <c r="M376" s="22"/>
+      <c r="N376" s="22"/>
+      <c r="O376" s="22"/>
+      <c r="P376" s="22"/>
+      <c r="Q376" s="22"/>
+      <c r="R376" s="23"/>
+      <c r="S376" s="24"/>
+      <c r="T376" s="25" t="s">
         <v>47</v>
       </c>
     </row>

--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111DEDALUSXXX\Regione_Sardegna\ADTWEB_SISaR_RAS\20.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA2D0C-C50A-4759-A24E-B99775EC9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A02EF2-D045-43C0-A86C-7BF748DD2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="921">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -526,6 +526,12 @@
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -568,10 +574,7 @@
     </r>
   </si>
   <si>
-    <t>PSS</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
     <r>
@@ -616,7 +619,10 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
     <r>
@@ -661,10 +667,7 @@
     </r>
   </si>
   <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -709,7 +712,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -754,7 +757,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
     <r>
@@ -799,51 +802,6 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
   </si>
   <si>
@@ -4553,21 +4511,9 @@
     <t>2.16.840.1.113883.2.9.2.200.4.4.240e9ef6497bb0980a66abdad76ac7ebb49878c4229072bb598ea7adcee6a06f.936fc4fc8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-10-09T15:46:44Z</t>
-  </si>
-  <si>
-    <t>31f638c32b22aeb4</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>e09785018ee672e9</t>
-  </si>
-  <si>
-    <t>2023-10-09T16:07:35Z</t>
-  </si>
-  <si>
     <t>Viene segnalato un errore di connessione al gateway e si chiede di segnalare il problema all'amministratore di sistema.</t>
   </si>
   <si>
@@ -4725,6 +4671,18 @@
   </si>
   <si>
     <t>Il documento viene ritrasmesso automaticamente.</t>
+  </si>
+  <si>
+    <t>2023-11-07T16:35:55Z</t>
+  </si>
+  <si>
+    <t>bd63243aa68805b7</t>
+  </si>
+  <si>
+    <t>2023-11-07T16:37:20Z</t>
+  </si>
+  <si>
+    <t>0109cd20852beb1a</t>
   </si>
 </sst>
 </file>
@@ -5531,7 +5489,7 @@
     </row>
     <row r="4" spans="1:1" ht="185.4" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="48" customHeight="1">
@@ -7673,10 +7631,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36:P52"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7719,7 +7677,7 @@
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="47" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D2" s="46"/>
       <c r="F2" s="9"/>
@@ -7744,7 +7702,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="9"/>
@@ -7767,7 +7725,7 @@
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="54" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="4"/>
@@ -7791,7 +7749,7 @@
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="9"/>
@@ -8119,16 +8077,16 @@
         <v>45205</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>854</v>
-      </c>
       <c r="J15" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -8163,16 +8121,16 @@
         <v>45205</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H16" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>856</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -8207,16 +8165,16 @@
         <v>45208</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H17" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>860</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -8251,16 +8209,16 @@
         <v>45208</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>861</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>863</v>
-      </c>
       <c r="J18" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -8867,36 +8825,36 @@
         <v>104</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F36" s="20">
         <v>45208</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>864</v>
+        <v>917</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>865</v>
+        <v>918</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P36" s="40" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="23"/>
@@ -8913,13 +8871,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="E37" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
@@ -8930,11 +8888,11 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="36" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
@@ -8954,10 +8912,10 @@
         <v>65</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
@@ -8968,11 +8926,11 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="36" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
@@ -8989,13 +8947,13 @@
         <v>43</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
@@ -9026,10 +8984,10 @@
         <v>74</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="21"/>
@@ -9060,10 +9018,10 @@
         <v>83</v>
       </c>
       <c r="D41" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
@@ -9094,10 +9052,10 @@
         <v>92</v>
       </c>
       <c r="D42" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
@@ -9128,10 +9086,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
@@ -9162,39 +9120,39 @@
         <v>56</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="20">
         <v>45208</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>868</v>
+        <v>919</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>867</v>
+        <v>920</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N44" s="40"/>
       <c r="O44" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P44" s="40" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="Q44" s="22"/>
       <c r="R44" s="23"/>
@@ -9211,13 +9169,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
@@ -9248,10 +9206,10 @@
         <v>65</v>
       </c>
       <c r="D46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
@@ -9279,13 +9237,13 @@
         <v>43</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
@@ -9316,10 +9274,10 @@
         <v>74</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
@@ -9350,10 +9308,10 @@
         <v>83</v>
       </c>
       <c r="D49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
@@ -9384,10 +9342,10 @@
         <v>92</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
@@ -9418,10 +9376,10 @@
         <v>44</v>
       </c>
       <c r="D51" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
@@ -9436,7 +9394,7 @@
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S51" s="24"/>
       <c r="T51" s="25" t="s">
@@ -9454,35 +9412,35 @@
         <v>56</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N52" s="40"/>
       <c r="O52" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P52" s="40" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S52" s="24"/>
       <c r="T52" s="25" t="s">
@@ -9497,13 +9455,13 @@
         <v>43</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
@@ -9518,7 +9476,7 @@
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
       <c r="R53" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S53" s="24"/>
       <c r="T53" s="25" t="s">
@@ -9536,10 +9494,10 @@
         <v>65</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
@@ -9554,7 +9512,7 @@
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S54" s="24"/>
       <c r="T54" s="25" t="s">
@@ -9569,13 +9527,13 @@
         <v>43</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="21"/>
@@ -9590,7 +9548,7 @@
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
       <c r="R55" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S55" s="24"/>
       <c r="T55" s="25" t="s">
@@ -9608,10 +9566,10 @@
         <v>74</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
@@ -9626,7 +9584,7 @@
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S56" s="24"/>
       <c r="T56" s="25" t="s">
@@ -9644,10 +9602,10 @@
         <v>83</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
@@ -9662,7 +9620,7 @@
       <c r="P57" s="22"/>
       <c r="Q57" s="22"/>
       <c r="R57" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S57" s="24"/>
       <c r="T57" s="25" t="s">
@@ -9680,10 +9638,10 @@
         <v>92</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
@@ -9698,7 +9656,7 @@
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
       <c r="R58" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S58" s="24"/>
       <c r="T58" s="25" t="s">
@@ -9716,10 +9674,10 @@
         <v>44</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="21"/>
@@ -9750,10 +9708,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="21"/>
@@ -9784,10 +9742,10 @@
         <v>44</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
@@ -9818,10 +9776,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
@@ -9852,10 +9810,10 @@
         <v>44</v>
       </c>
       <c r="D63" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="21"/>
@@ -9886,10 +9844,10 @@
         <v>44</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
@@ -9920,10 +9878,10 @@
         <v>44</v>
       </c>
       <c r="D65" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
@@ -9954,10 +9912,10 @@
         <v>44</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="21"/>
@@ -9988,10 +9946,10 @@
         <v>44</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="21"/>
@@ -10022,10 +9980,10 @@
         <v>44</v>
       </c>
       <c r="D68" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="21"/>
@@ -10056,10 +10014,10 @@
         <v>44</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="21"/>
@@ -10090,39 +10048,39 @@
         <v>56</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="42" t="s">
         <v>167</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>168</v>
       </c>
       <c r="F70" s="20">
         <v>45209</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="Q70" s="22"/>
       <c r="R70" s="23"/>
@@ -10142,41 +10100,41 @@
         <v>56</v>
       </c>
       <c r="D71" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="F71" s="20">
         <v>45209</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K71" s="22"/>
       <c r="L71" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="Q71" s="22"/>
       <c r="R71" s="23"/>
@@ -10196,39 +10154,39 @@
         <v>56</v>
       </c>
       <c r="D72" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="F72" s="20">
         <v>45209</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K72" s="22"/>
       <c r="L72" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N72" s="22"/>
       <c r="O72" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="Q72" s="22"/>
       <c r="R72" s="23"/>
@@ -10248,41 +10206,41 @@
         <v>56</v>
       </c>
       <c r="D73" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="F73" s="20">
         <v>45209</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K73" s="22"/>
       <c r="L73" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q73" s="22"/>
       <c r="R73" s="23"/>
@@ -10302,41 +10260,41 @@
         <v>56</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="F74" s="20">
         <v>45209</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K74" s="22"/>
       <c r="L74" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q74" s="22"/>
       <c r="R74" s="23"/>
@@ -10356,39 +10314,39 @@
         <v>56</v>
       </c>
       <c r="D75" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="F75" s="20">
         <v>45209</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="Q75" s="22"/>
       <c r="R75" s="23"/>
@@ -10408,39 +10366,39 @@
         <v>56</v>
       </c>
       <c r="D76" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="F76" s="20">
         <v>45209</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Q76" s="22"/>
       <c r="R76" s="23"/>
@@ -10460,39 +10418,39 @@
         <v>56</v>
       </c>
       <c r="D77" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="F77" s="20">
         <v>45209</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Q77" s="22"/>
       <c r="R77" s="23"/>
@@ -10512,39 +10470,39 @@
         <v>56</v>
       </c>
       <c r="D78" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="F78" s="20">
         <v>45209</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K78" s="22"/>
       <c r="L78" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Q78" s="22"/>
       <c r="R78" s="23"/>
@@ -10564,39 +10522,39 @@
         <v>56</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="F79" s="20">
         <v>45209</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Q79" s="22"/>
       <c r="R79" s="23"/>
@@ -10616,39 +10574,39 @@
         <v>56</v>
       </c>
       <c r="D80" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="F80" s="20">
         <v>45209</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K80" s="22"/>
       <c r="L80" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="Q80" s="22"/>
       <c r="R80" s="23"/>
@@ -10668,39 +10626,39 @@
         <v>56</v>
       </c>
       <c r="D81" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="F81" s="20">
         <v>45209</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K81" s="22"/>
       <c r="L81" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Q81" s="22"/>
       <c r="R81" s="23"/>
@@ -10720,10 +10678,10 @@
         <v>65</v>
       </c>
       <c r="D82" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="21"/>
@@ -10754,10 +10712,10 @@
         <v>65</v>
       </c>
       <c r="D83" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="21"/>
@@ -10788,10 +10746,10 @@
         <v>65</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="21"/>
@@ -10822,10 +10780,10 @@
         <v>65</v>
       </c>
       <c r="D85" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
@@ -10856,10 +10814,10 @@
         <v>65</v>
       </c>
       <c r="D86" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
@@ -10890,10 +10848,10 @@
         <v>65</v>
       </c>
       <c r="D87" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="21"/>
@@ -10924,10 +10882,10 @@
         <v>65</v>
       </c>
       <c r="D88" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="21"/>
@@ -10958,10 +10916,10 @@
         <v>65</v>
       </c>
       <c r="D89" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="21"/>
@@ -10992,10 +10950,10 @@
         <v>65</v>
       </c>
       <c r="D90" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>208</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
@@ -11026,10 +10984,10 @@
         <v>65</v>
       </c>
       <c r="D91" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
@@ -11060,10 +11018,10 @@
         <v>65</v>
       </c>
       <c r="D92" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
@@ -11094,10 +11052,10 @@
         <v>65</v>
       </c>
       <c r="D93" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
@@ -11128,10 +11086,10 @@
         <v>65</v>
       </c>
       <c r="D94" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="21"/>
@@ -11162,10 +11120,10 @@
         <v>65</v>
       </c>
       <c r="D95" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
@@ -11196,10 +11154,10 @@
         <v>65</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
@@ -11230,10 +11188,10 @@
         <v>65</v>
       </c>
       <c r="D97" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
@@ -11264,10 +11222,10 @@
         <v>65</v>
       </c>
       <c r="D98" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="21"/>
@@ -11298,10 +11256,10 @@
         <v>65</v>
       </c>
       <c r="D99" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="21"/>
@@ -11332,10 +11290,10 @@
         <v>65</v>
       </c>
       <c r="D100" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
@@ -11366,10 +11324,10 @@
         <v>74</v>
       </c>
       <c r="D101" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="21"/>
@@ -11400,10 +11358,10 @@
         <v>74</v>
       </c>
       <c r="D102" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="21"/>
@@ -11434,10 +11392,10 @@
         <v>74</v>
       </c>
       <c r="D103" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="21"/>
@@ -11468,10 +11426,10 @@
         <v>74</v>
       </c>
       <c r="D104" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="21"/>
@@ -11502,10 +11460,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="21"/>
@@ -11536,10 +11494,10 @@
         <v>74</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="21"/>
@@ -11570,10 +11528,10 @@
         <v>74</v>
       </c>
       <c r="D107" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="21"/>
@@ -11604,10 +11562,10 @@
         <v>74</v>
       </c>
       <c r="D108" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="21"/>
@@ -11638,10 +11596,10 @@
         <v>74</v>
       </c>
       <c r="D109" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="21"/>
@@ -11672,10 +11630,10 @@
         <v>74</v>
       </c>
       <c r="D110" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="21"/>
@@ -11706,10 +11664,10 @@
         <v>74</v>
       </c>
       <c r="D111" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
@@ -11740,10 +11698,10 @@
         <v>74</v>
       </c>
       <c r="D112" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -11774,10 +11732,10 @@
         <v>74</v>
       </c>
       <c r="D113" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="21"/>
@@ -11808,10 +11766,10 @@
         <v>83</v>
       </c>
       <c r="D114" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
@@ -11842,10 +11800,10 @@
         <v>83</v>
       </c>
       <c r="D115" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
@@ -11876,10 +11834,10 @@
         <v>83</v>
       </c>
       <c r="D116" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
@@ -11910,10 +11868,10 @@
         <v>83</v>
       </c>
       <c r="D117" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="21"/>
@@ -11944,10 +11902,10 @@
         <v>83</v>
       </c>
       <c r="D118" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
@@ -11978,10 +11936,10 @@
         <v>83</v>
       </c>
       <c r="D119" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="21"/>
@@ -12012,10 +11970,10 @@
         <v>83</v>
       </c>
       <c r="D120" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="21"/>
@@ -12046,10 +12004,10 @@
         <v>83</v>
       </c>
       <c r="D121" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="21"/>
@@ -12080,10 +12038,10 @@
         <v>83</v>
       </c>
       <c r="D122" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>272</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="21"/>
@@ -12114,10 +12072,10 @@
         <v>83</v>
       </c>
       <c r="D123" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="21"/>
@@ -12148,10 +12106,10 @@
         <v>83</v>
       </c>
       <c r="D124" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
@@ -12182,10 +12140,10 @@
         <v>83</v>
       </c>
       <c r="D125" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="21"/>
@@ -12216,10 +12174,10 @@
         <v>83</v>
       </c>
       <c r="D126" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
@@ -12250,10 +12208,10 @@
         <v>83</v>
       </c>
       <c r="D127" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="21"/>
@@ -12284,10 +12242,10 @@
         <v>83</v>
       </c>
       <c r="D128" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="21"/>
@@ -12318,10 +12276,10 @@
         <v>92</v>
       </c>
       <c r="D129" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
@@ -12352,10 +12310,10 @@
         <v>92</v>
       </c>
       <c r="D130" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
@@ -12386,10 +12344,10 @@
         <v>92</v>
       </c>
       <c r="D131" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
@@ -12420,10 +12378,10 @@
         <v>92</v>
       </c>
       <c r="D132" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="21"/>
@@ -12454,10 +12412,10 @@
         <v>92</v>
       </c>
       <c r="D133" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E133" s="19" t="s">
         <v>293</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="21"/>
@@ -12488,10 +12446,10 @@
         <v>92</v>
       </c>
       <c r="D134" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
@@ -12522,10 +12480,10 @@
         <v>92</v>
       </c>
       <c r="D135" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="19" t="s">
         <v>297</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>298</v>
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
@@ -12556,10 +12514,10 @@
         <v>92</v>
       </c>
       <c r="D136" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
@@ -12590,10 +12548,10 @@
         <v>92</v>
       </c>
       <c r="D137" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="E137" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="21"/>
@@ -12624,10 +12582,10 @@
         <v>92</v>
       </c>
       <c r="D138" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>304</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
@@ -12658,10 +12616,10 @@
         <v>92</v>
       </c>
       <c r="D139" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -12692,10 +12650,10 @@
         <v>92</v>
       </c>
       <c r="D140" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>308</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="21"/>
@@ -12726,10 +12684,10 @@
         <v>92</v>
       </c>
       <c r="D141" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="E141" s="19" t="s">
-        <v>310</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="21"/>
@@ -12760,10 +12718,10 @@
         <v>92</v>
       </c>
       <c r="D142" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>312</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
@@ -12794,10 +12752,10 @@
         <v>92</v>
       </c>
       <c r="D143" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E143" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="E143" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="21"/>
@@ -12828,10 +12786,10 @@
         <v>92</v>
       </c>
       <c r="D144" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>315</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>316</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="21"/>
@@ -12862,10 +12820,10 @@
         <v>92</v>
       </c>
       <c r="D145" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E145" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>318</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="21"/>
@@ -12896,10 +12854,10 @@
         <v>92</v>
       </c>
       <c r="D146" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>320</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="21"/>
@@ -12930,10 +12888,10 @@
         <v>92</v>
       </c>
       <c r="D147" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="E147" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="21"/>
@@ -12964,10 +12922,10 @@
         <v>92</v>
       </c>
       <c r="D148" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>324</v>
       </c>
       <c r="F148" s="20"/>
       <c r="G148" s="21"/>
@@ -12998,10 +12956,10 @@
         <v>92</v>
       </c>
       <c r="D149" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="21"/>
@@ -13032,10 +12990,10 @@
         <v>92</v>
       </c>
       <c r="D150" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="F150" s="20"/>
       <c r="G150" s="21"/>
@@ -13066,10 +13024,10 @@
         <v>92</v>
       </c>
       <c r="D151" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E151" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
@@ -13100,10 +13058,10 @@
         <v>92</v>
       </c>
       <c r="D152" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>332</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
@@ -13134,10 +13092,10 @@
         <v>92</v>
       </c>
       <c r="D153" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="E153" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
@@ -13165,13 +13123,13 @@
         <v>43</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D154" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="F154" s="20"/>
       <c r="G154" s="21"/>
@@ -13199,13 +13157,13 @@
         <v>43</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D155" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="21"/>
@@ -13233,13 +13191,13 @@
         <v>43</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D156" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="F156" s="20"/>
       <c r="G156" s="21"/>
@@ -13267,13 +13225,13 @@
         <v>43</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D157" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E157" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
@@ -13301,13 +13259,13 @@
         <v>43</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D158" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
@@ -13335,13 +13293,13 @@
         <v>43</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D159" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E159" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>346</v>
       </c>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
@@ -13369,13 +13327,13 @@
         <v>43</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D160" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E160" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>348</v>
       </c>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
@@ -13403,13 +13361,13 @@
         <v>43</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D161" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="F161" s="20"/>
       <c r="G161" s="21"/>
@@ -13437,13 +13395,13 @@
         <v>43</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D162" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="F162" s="20"/>
       <c r="G162" s="21"/>
@@ -13471,13 +13429,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D163" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E163" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="E163" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="F163" s="20"/>
       <c r="G163" s="21"/>
@@ -13505,13 +13463,13 @@
         <v>43</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D164" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="F164" s="20"/>
       <c r="G164" s="21"/>
@@ -13539,13 +13497,13 @@
         <v>43</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D165" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="E165" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="F165" s="20"/>
       <c r="G165" s="21"/>
@@ -13573,13 +13531,13 @@
         <v>43</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D166" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="F166" s="20"/>
       <c r="G166" s="21"/>
@@ -13607,13 +13565,13 @@
         <v>43</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D167" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="F167" s="20"/>
       <c r="G167" s="21"/>
@@ -13641,13 +13599,13 @@
         <v>43</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D168" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="E168" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="F168" s="20"/>
       <c r="G168" s="21"/>
@@ -13675,13 +13633,13 @@
         <v>43</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D169" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="F169" s="20"/>
       <c r="G169" s="21"/>
@@ -13709,13 +13667,13 @@
         <v>43</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D170" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="F170" s="20"/>
       <c r="G170" s="21"/>
@@ -13743,13 +13701,13 @@
         <v>43</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D171" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="E171" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="21"/>
@@ -13777,13 +13735,13 @@
         <v>43</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D172" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="21"/>
@@ -13811,13 +13769,13 @@
         <v>43</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D173" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E173" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="E173" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="21"/>
@@ -13845,13 +13803,13 @@
         <v>43</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D174" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E174" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="21"/>
@@ -13879,13 +13837,13 @@
         <v>43</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D175" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="F175" s="20"/>
       <c r="G175" s="21"/>
@@ -13913,13 +13871,13 @@
         <v>43</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D176" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E176" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="F176" s="20"/>
       <c r="G176" s="21"/>
@@ -13947,13 +13905,13 @@
         <v>43</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D177" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="F177" s="20"/>
       <c r="G177" s="21"/>
@@ -13981,13 +13939,13 @@
         <v>43</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D178" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>384</v>
       </c>
       <c r="F178" s="20"/>
       <c r="G178" s="21"/>
@@ -14015,13 +13973,13 @@
         <v>43</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D179" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="F179" s="20"/>
       <c r="G179" s="21"/>
@@ -14049,13 +14007,13 @@
         <v>43</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D180" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="19" t="s">
         <v>387</v>
-      </c>
-      <c r="E180" s="19" t="s">
-        <v>388</v>
       </c>
       <c r="F180" s="20"/>
       <c r="G180" s="21"/>
@@ -14083,13 +14041,13 @@
         <v>43</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D181" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E181" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>390</v>
       </c>
       <c r="F181" s="20"/>
       <c r="G181" s="21"/>
@@ -14117,13 +14075,13 @@
         <v>43</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D182" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E182" s="19" t="s">
         <v>391</v>
-      </c>
-      <c r="E182" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="21"/>
@@ -14151,13 +14109,13 @@
         <v>43</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D183" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="F183" s="20"/>
       <c r="G183" s="21"/>
@@ -14185,13 +14143,13 @@
         <v>43</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D184" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E184" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="E184" s="19" t="s">
-        <v>396</v>
       </c>
       <c r="F184" s="20"/>
       <c r="G184" s="21"/>
@@ -14219,13 +14177,13 @@
         <v>43</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D185" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E185" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="E185" s="19" t="s">
-        <v>398</v>
       </c>
       <c r="F185" s="20"/>
       <c r="G185" s="21"/>
@@ -14253,13 +14211,13 @@
         <v>43</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D186" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E186" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="E186" s="19" t="s">
-        <v>400</v>
       </c>
       <c r="F186" s="20"/>
       <c r="G186" s="21"/>
@@ -14287,13 +14245,13 @@
         <v>43</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E187" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>402</v>
       </c>
       <c r="F187" s="20"/>
       <c r="G187" s="21"/>
@@ -14321,13 +14279,13 @@
         <v>43</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D188" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E188" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="E188" s="19" t="s">
-        <v>404</v>
       </c>
       <c r="F188" s="20"/>
       <c r="G188" s="21"/>
@@ -14355,13 +14313,13 @@
         <v>43</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D189" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E189" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="E189" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="F189" s="20"/>
       <c r="G189" s="21"/>
@@ -14389,13 +14347,13 @@
         <v>43</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D190" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>408</v>
       </c>
       <c r="F190" s="20"/>
       <c r="G190" s="21"/>
@@ -14423,13 +14381,13 @@
         <v>43</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D191" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="E191" s="19" t="s">
         <v>409</v>
-      </c>
-      <c r="E191" s="19" t="s">
-        <v>410</v>
       </c>
       <c r="F191" s="20"/>
       <c r="G191" s="21"/>
@@ -14457,13 +14415,13 @@
         <v>43</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D192" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E192" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>412</v>
       </c>
       <c r="F192" s="20"/>
       <c r="G192" s="21"/>
@@ -14491,13 +14449,13 @@
         <v>43</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D193" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E193" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="E193" s="19" t="s">
-        <v>414</v>
       </c>
       <c r="F193" s="20"/>
       <c r="G193" s="21"/>
@@ -14525,13 +14483,13 @@
         <v>43</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D194" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E194" s="19" t="s">
         <v>415</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>416</v>
       </c>
       <c r="F194" s="20"/>
       <c r="G194" s="21"/>
@@ -14559,13 +14517,13 @@
         <v>43</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D195" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E195" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="E195" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="F195" s="20"/>
       <c r="G195" s="21"/>
@@ -14593,13 +14551,13 @@
         <v>43</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D196" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E196" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="E196" s="19" t="s">
-        <v>420</v>
       </c>
       <c r="F196" s="20"/>
       <c r="G196" s="21"/>
@@ -14627,13 +14585,13 @@
         <v>43</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D197" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="E197" s="19" t="s">
-        <v>422</v>
       </c>
       <c r="F197" s="20"/>
       <c r="G197" s="21"/>
@@ -14664,10 +14622,10 @@
         <v>44</v>
       </c>
       <c r="D198" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E198" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>424</v>
       </c>
       <c r="F198" s="20"/>
       <c r="G198" s="21"/>
@@ -14692,16 +14650,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D199" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E199" s="19" t="s">
         <v>426</v>
-      </c>
-      <c r="E199" s="19" t="s">
-        <v>427</v>
       </c>
       <c r="F199" s="20"/>
       <c r="G199" s="21"/>
@@ -14726,16 +14684,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D200" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="E200" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="E200" s="19" t="s">
-        <v>430</v>
       </c>
       <c r="F200" s="20"/>
       <c r="G200" s="21"/>
@@ -14760,16 +14718,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D201" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="E201" s="19" t="s">
         <v>432</v>
-      </c>
-      <c r="E201" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="F201" s="20"/>
       <c r="G201" s="21"/>
@@ -14794,16 +14752,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D202" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E202" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="F202" s="20"/>
       <c r="G202" s="21"/>
@@ -14828,16 +14786,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D203" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E203" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="E203" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="F203" s="20"/>
       <c r="G203" s="21"/>
@@ -14862,16 +14820,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D204" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E204" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="E204" s="19" t="s">
-        <v>441</v>
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="21"/>
@@ -14896,16 +14854,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D205" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E205" s="19" t="s">
         <v>442</v>
-      </c>
-      <c r="E205" s="19" t="s">
-        <v>443</v>
       </c>
       <c r="F205" s="20"/>
       <c r="G205" s="21"/>
@@ -14930,16 +14888,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D206" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E206" s="19" t="s">
         <v>444</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>445</v>
       </c>
       <c r="F206" s="20"/>
       <c r="G206" s="21"/>
@@ -14964,16 +14922,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D207" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E207" s="19" t="s">
         <v>446</v>
-      </c>
-      <c r="E207" s="19" t="s">
-        <v>447</v>
       </c>
       <c r="F207" s="20"/>
       <c r="G207" s="21"/>
@@ -14998,16 +14956,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E208" s="19" t="s">
         <v>448</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>449</v>
       </c>
       <c r="F208" s="20"/>
       <c r="G208" s="21"/>
@@ -15032,16 +14990,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D209" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E209" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="E209" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="F209" s="20"/>
       <c r="G209" s="21"/>
@@ -15066,16 +15024,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E210" s="19" t="s">
         <v>452</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>453</v>
       </c>
       <c r="F210" s="20"/>
       <c r="G210" s="21"/>
@@ -15100,16 +15058,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D211" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E211" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="E211" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="F211" s="20"/>
       <c r="G211" s="21"/>
@@ -15134,16 +15092,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E212" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="E212" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="F212" s="20"/>
       <c r="G212" s="21"/>
@@ -15168,16 +15126,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D213" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="E213" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="E213" s="19" t="s">
-        <v>459</v>
       </c>
       <c r="F213" s="20"/>
       <c r="G213" s="21"/>
@@ -15202,16 +15160,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C214" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D214" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E214" s="19" t="s">
         <v>460</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>461</v>
       </c>
       <c r="F214" s="20"/>
       <c r="G214" s="21"/>
@@ -15236,16 +15194,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C215" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D215" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="E215" s="19" t="s">
         <v>462</v>
-      </c>
-      <c r="E215" s="19" t="s">
-        <v>463</v>
       </c>
       <c r="F215" s="20"/>
       <c r="G215" s="21"/>
@@ -15270,16 +15228,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C216" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D216" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E216" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="F216" s="20"/>
       <c r="G216" s="21"/>
@@ -15304,16 +15262,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C217" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D217" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E217" s="19" t="s">
         <v>466</v>
-      </c>
-      <c r="E217" s="19" t="s">
-        <v>467</v>
       </c>
       <c r="F217" s="20"/>
       <c r="G217" s="21"/>
@@ -15338,16 +15296,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C218" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D218" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E218" s="19" t="s">
         <v>468</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>469</v>
       </c>
       <c r="F218" s="20"/>
       <c r="G218" s="21"/>
@@ -15372,16 +15330,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C219" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D219" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="E219" s="19" t="s">
         <v>470</v>
-      </c>
-      <c r="E219" s="19" t="s">
-        <v>471</v>
       </c>
       <c r="F219" s="20"/>
       <c r="G219" s="21"/>
@@ -15406,16 +15364,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C220" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D220" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E220" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="E220" s="19" t="s">
-        <v>473</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="21"/>
@@ -15440,16 +15398,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C221" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D221" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E221" s="19" t="s">
         <v>474</v>
-      </c>
-      <c r="E221" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="21"/>
@@ -15474,16 +15432,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C222" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D222" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E222" s="19" t="s">
         <v>476</v>
-      </c>
-      <c r="E222" s="19" t="s">
-        <v>477</v>
       </c>
       <c r="F222" s="20"/>
       <c r="G222" s="21"/>
@@ -15508,16 +15466,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D223" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E223" s="19" t="s">
         <v>478</v>
-      </c>
-      <c r="E223" s="19" t="s">
-        <v>479</v>
       </c>
       <c r="F223" s="20"/>
       <c r="G223" s="21"/>
@@ -15542,16 +15500,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D224" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E224" s="19" t="s">
         <v>480</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>481</v>
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="21"/>
@@ -15576,16 +15534,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D225" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E225" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="E225" s="19" t="s">
-        <v>483</v>
       </c>
       <c r="F225" s="20"/>
       <c r="G225" s="21"/>
@@ -15610,16 +15568,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C226" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D226" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E226" s="19" t="s">
         <v>484</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>485</v>
       </c>
       <c r="F226" s="20"/>
       <c r="G226" s="21"/>
@@ -15644,16 +15602,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F227" s="20"/>
       <c r="G227" s="21"/>
@@ -15678,16 +15636,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C228" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D228" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E228" s="19" t="s">
         <v>487</v>
-      </c>
-      <c r="E228" s="19" t="s">
-        <v>488</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="21"/>
@@ -15712,16 +15670,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C229" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D229" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="E229" s="19" t="s">
         <v>489</v>
-      </c>
-      <c r="E229" s="19" t="s">
-        <v>490</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="21"/>
@@ -15746,16 +15704,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C230" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D230" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E230" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="E230" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="21"/>
@@ -15780,16 +15738,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D231" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>493</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>494</v>
       </c>
       <c r="F231" s="20"/>
       <c r="G231" s="21"/>
@@ -15814,16 +15772,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D232" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E232" s="19" t="s">
         <v>495</v>
-      </c>
-      <c r="E232" s="19" t="s">
-        <v>496</v>
       </c>
       <c r="F232" s="20"/>
       <c r="G232" s="21"/>
@@ -15848,16 +15806,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D233" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E233" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="E233" s="19" t="s">
-        <v>498</v>
       </c>
       <c r="F233" s="20"/>
       <c r="G233" s="21"/>
@@ -15882,16 +15840,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D234" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="E234" s="19" t="s">
         <v>499</v>
-      </c>
-      <c r="E234" s="19" t="s">
-        <v>500</v>
       </c>
       <c r="F234" s="20"/>
       <c r="G234" s="21"/>
@@ -15916,16 +15874,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D235" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E235" s="19" t="s">
         <v>501</v>
-      </c>
-      <c r="E235" s="19" t="s">
-        <v>502</v>
       </c>
       <c r="F235" s="20"/>
       <c r="G235" s="21"/>
@@ -15950,16 +15908,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D236" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="E236" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="E236" s="19" t="s">
-        <v>504</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="21"/>
@@ -15984,16 +15942,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D237" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="E237" s="19" t="s">
         <v>505</v>
-      </c>
-      <c r="E237" s="19" t="s">
-        <v>506</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="21"/>
@@ -16018,16 +15976,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D238" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E238" s="19" t="s">
         <v>507</v>
-      </c>
-      <c r="E238" s="19" t="s">
-        <v>508</v>
       </c>
       <c r="F238" s="20"/>
       <c r="G238" s="21"/>
@@ -16052,16 +16010,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D239" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="E239" s="19" t="s">
         <v>509</v>
-      </c>
-      <c r="E239" s="19" t="s">
-        <v>510</v>
       </c>
       <c r="F239" s="20"/>
       <c r="G239" s="21"/>
@@ -16086,16 +16044,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D240" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>511</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>512</v>
       </c>
       <c r="F240" s="20"/>
       <c r="G240" s="21"/>
@@ -16120,16 +16078,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D241" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="E241" s="19" t="s">
         <v>513</v>
-      </c>
-      <c r="E241" s="19" t="s">
-        <v>514</v>
       </c>
       <c r="F241" s="20"/>
       <c r="G241" s="21"/>
@@ -16154,16 +16112,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D242" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E242" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="E242" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="F242" s="20"/>
       <c r="G242" s="21"/>
@@ -16188,16 +16146,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E243" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F243" s="20"/>
       <c r="G243" s="21"/>
@@ -16222,16 +16180,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D244" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="E244" s="19" t="s">
         <v>518</v>
-      </c>
-      <c r="E244" s="19" t="s">
-        <v>519</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="21"/>
@@ -16256,16 +16214,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C245" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D245" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E245" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="E245" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="21"/>
@@ -16290,16 +16248,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D246" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E246" s="19" t="s">
         <v>522</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>523</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="21"/>
@@ -16324,16 +16282,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D247" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E247" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="E247" s="19" t="s">
-        <v>525</v>
       </c>
       <c r="F247" s="20"/>
       <c r="G247" s="21"/>
@@ -16358,16 +16316,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D248" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E248" s="19" t="s">
         <v>526</v>
-      </c>
-      <c r="E248" s="19" t="s">
-        <v>527</v>
       </c>
       <c r="F248" s="20"/>
       <c r="G248" s="21"/>
@@ -16392,16 +16350,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C249" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D249" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="E249" s="19" t="s">
         <v>528</v>
-      </c>
-      <c r="E249" s="19" t="s">
-        <v>529</v>
       </c>
       <c r="F249" s="20"/>
       <c r="G249" s="21"/>
@@ -16426,16 +16384,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D250" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E250" s="19" t="s">
         <v>530</v>
-      </c>
-      <c r="E250" s="19" t="s">
-        <v>531</v>
       </c>
       <c r="F250" s="20"/>
       <c r="G250" s="21"/>
@@ -16460,16 +16418,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D251" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E251" s="19" t="s">
         <v>532</v>
-      </c>
-      <c r="E251" s="19" t="s">
-        <v>533</v>
       </c>
       <c r="F251" s="20"/>
       <c r="G251" s="21"/>
@@ -16494,16 +16452,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D252" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E252" s="19" t="s">
         <v>534</v>
-      </c>
-      <c r="E252" s="19" t="s">
-        <v>535</v>
       </c>
       <c r="F252" s="20"/>
       <c r="G252" s="21"/>
@@ -16528,16 +16486,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D253" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>536</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>537</v>
       </c>
       <c r="F253" s="20"/>
       <c r="G253" s="21"/>
@@ -16562,16 +16520,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C254" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D254" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E254" s="19" t="s">
         <v>538</v>
-      </c>
-      <c r="E254" s="19" t="s">
-        <v>539</v>
       </c>
       <c r="F254" s="20"/>
       <c r="G254" s="21"/>
@@ -16596,16 +16554,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C255" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D255" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E255" s="19" t="s">
         <v>540</v>
-      </c>
-      <c r="E255" s="19" t="s">
-        <v>541</v>
       </c>
       <c r="F255" s="20"/>
       <c r="G255" s="21"/>
@@ -16630,16 +16588,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D256" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E256" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="E256" s="19" t="s">
-        <v>543</v>
       </c>
       <c r="F256" s="20"/>
       <c r="G256" s="21"/>
@@ -16664,16 +16622,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D257" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E257" s="19" t="s">
         <v>544</v>
-      </c>
-      <c r="E257" s="19" t="s">
-        <v>545</v>
       </c>
       <c r="F257" s="20"/>
       <c r="G257" s="21"/>
@@ -16698,16 +16656,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C258" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D258" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E258" s="19" t="s">
         <v>546</v>
-      </c>
-      <c r="E258" s="19" t="s">
-        <v>547</v>
       </c>
       <c r="F258" s="20"/>
       <c r="G258" s="21"/>
@@ -16732,16 +16690,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C259" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E259" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F259" s="20"/>
       <c r="G259" s="21"/>
@@ -16766,16 +16724,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C260" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D260" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="E260" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="E260" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="F260" s="20"/>
       <c r="G260" s="21"/>
@@ -16800,16 +16758,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C261" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D261" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E261" s="19" t="s">
         <v>551</v>
-      </c>
-      <c r="E261" s="19" t="s">
-        <v>552</v>
       </c>
       <c r="F261" s="20"/>
       <c r="G261" s="21"/>
@@ -16834,16 +16792,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D262" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E262" s="19" t="s">
         <v>553</v>
-      </c>
-      <c r="E262" s="19" t="s">
-        <v>554</v>
       </c>
       <c r="F262" s="20"/>
       <c r="G262" s="21"/>
@@ -16868,16 +16826,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D263" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E263" s="19" t="s">
         <v>555</v>
-      </c>
-      <c r="E263" s="19" t="s">
-        <v>556</v>
       </c>
       <c r="F263" s="20"/>
       <c r="G263" s="21"/>
@@ -16902,16 +16860,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D264" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E264" s="19" t="s">
         <v>557</v>
-      </c>
-      <c r="E264" s="19" t="s">
-        <v>558</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="21"/>
@@ -16936,16 +16894,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D265" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="E265" s="19" t="s">
         <v>559</v>
-      </c>
-      <c r="E265" s="19" t="s">
-        <v>560</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="21"/>
@@ -16970,16 +16928,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D266" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="E266" s="19" t="s">
         <v>561</v>
-      </c>
-      <c r="E266" s="19" t="s">
-        <v>562</v>
       </c>
       <c r="F266" s="20"/>
       <c r="G266" s="21"/>
@@ -17004,16 +16962,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D267" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E267" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="E267" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="21"/>
@@ -17038,16 +16996,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D268" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E268" s="19" t="s">
         <v>565</v>
-      </c>
-      <c r="E268" s="19" t="s">
-        <v>566</v>
       </c>
       <c r="F268" s="20"/>
       <c r="G268" s="21"/>
@@ -17072,16 +17030,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D269" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="E269" s="19" t="s">
         <v>567</v>
-      </c>
-      <c r="E269" s="19" t="s">
-        <v>568</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="21"/>
@@ -17106,16 +17064,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C270" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D270" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="E270" s="19" t="s">
         <v>569</v>
-      </c>
-      <c r="E270" s="19" t="s">
-        <v>570</v>
       </c>
       <c r="F270" s="20"/>
       <c r="G270" s="21"/>
@@ -17140,16 +17098,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C271" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D271" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="E271" s="19" t="s">
         <v>571</v>
-      </c>
-      <c r="E271" s="19" t="s">
-        <v>572</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="21"/>
@@ -17174,16 +17132,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C272" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D272" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E272" s="19" t="s">
         <v>573</v>
-      </c>
-      <c r="E272" s="19" t="s">
-        <v>574</v>
       </c>
       <c r="F272" s="20"/>
       <c r="G272" s="21"/>
@@ -17208,16 +17166,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C273" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D273" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="E273" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="E273" s="19" t="s">
-        <v>576</v>
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="21"/>
@@ -17242,16 +17200,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C274" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D274" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E274" s="19" t="s">
         <v>577</v>
-      </c>
-      <c r="E274" s="19" t="s">
-        <v>578</v>
       </c>
       <c r="F274" s="20"/>
       <c r="G274" s="21"/>
@@ -17276,16 +17234,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E275" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F275" s="20"/>
       <c r="G275" s="21"/>
@@ -17310,16 +17268,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C276" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D276" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="E276" s="19" t="s">
         <v>580</v>
-      </c>
-      <c r="E276" s="19" t="s">
-        <v>581</v>
       </c>
       <c r="F276" s="20"/>
       <c r="G276" s="21"/>
@@ -17344,16 +17302,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C277" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D277" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="E277" s="19" t="s">
         <v>582</v>
-      </c>
-      <c r="E277" s="19" t="s">
-        <v>583</v>
       </c>
       <c r="F277" s="20"/>
       <c r="G277" s="21"/>
@@ -17378,16 +17336,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C278" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D278" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E278" s="19" t="s">
         <v>584</v>
-      </c>
-      <c r="E278" s="19" t="s">
-        <v>585</v>
       </c>
       <c r="F278" s="20"/>
       <c r="G278" s="21"/>
@@ -17412,16 +17370,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C279" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D279" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="E279" s="19" t="s">
         <v>586</v>
-      </c>
-      <c r="E279" s="19" t="s">
-        <v>587</v>
       </c>
       <c r="F279" s="20"/>
       <c r="G279" s="21"/>
@@ -17446,16 +17404,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C280" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D280" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="E280" s="19" t="s">
         <v>588</v>
-      </c>
-      <c r="E280" s="19" t="s">
-        <v>589</v>
       </c>
       <c r="F280" s="20"/>
       <c r="G280" s="21"/>
@@ -17480,16 +17438,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C281" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D281" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E281" s="19" t="s">
         <v>590</v>
-      </c>
-      <c r="E281" s="19" t="s">
-        <v>591</v>
       </c>
       <c r="F281" s="20"/>
       <c r="G281" s="21"/>
@@ -17514,16 +17472,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C282" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D282" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="E282" s="19" t="s">
         <v>592</v>
-      </c>
-      <c r="E282" s="19" t="s">
-        <v>593</v>
       </c>
       <c r="F282" s="20"/>
       <c r="G282" s="21"/>
@@ -17548,16 +17506,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C283" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D283" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="E283" s="19" t="s">
         <v>594</v>
-      </c>
-      <c r="E283" s="19" t="s">
-        <v>595</v>
       </c>
       <c r="F283" s="20"/>
       <c r="G283" s="21"/>
@@ -17582,16 +17540,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C284" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D284" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E284" s="19" t="s">
         <v>596</v>
-      </c>
-      <c r="E284" s="19" t="s">
-        <v>597</v>
       </c>
       <c r="F284" s="20"/>
       <c r="G284" s="21"/>
@@ -17616,16 +17574,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D285" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="E285" s="19" t="s">
         <v>598</v>
-      </c>
-      <c r="E285" s="19" t="s">
-        <v>599</v>
       </c>
       <c r="F285" s="20"/>
       <c r="G285" s="21"/>
@@ -17650,16 +17608,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D286" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="E286" s="19" t="s">
         <v>600</v>
-      </c>
-      <c r="E286" s="19" t="s">
-        <v>601</v>
       </c>
       <c r="F286" s="20"/>
       <c r="G286" s="21"/>
@@ -17684,16 +17642,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D287" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="E287" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="E287" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="F287" s="20"/>
       <c r="G287" s="21"/>
@@ -17718,16 +17676,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D288" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="E288" s="19" t="s">
         <v>604</v>
-      </c>
-      <c r="E288" s="19" t="s">
-        <v>605</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="21"/>
@@ -17752,16 +17710,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D289" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E289" s="19" t="s">
         <v>606</v>
-      </c>
-      <c r="E289" s="19" t="s">
-        <v>607</v>
       </c>
       <c r="F289" s="20"/>
       <c r="G289" s="21"/>
@@ -17786,16 +17744,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C290" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D290" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="E290" s="19" t="s">
         <v>608</v>
-      </c>
-      <c r="E290" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="F290" s="20"/>
       <c r="G290" s="21"/>
@@ -17820,16 +17778,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C291" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E291" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F291" s="20"/>
       <c r="G291" s="21"/>
@@ -17854,16 +17812,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C292" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D292" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="E292" s="19" t="s">
         <v>611</v>
-      </c>
-      <c r="E292" s="19" t="s">
-        <v>612</v>
       </c>
       <c r="F292" s="20"/>
       <c r="G292" s="21"/>
@@ -17888,16 +17846,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D293" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="E293" s="19" t="s">
         <v>613</v>
-      </c>
-      <c r="E293" s="19" t="s">
-        <v>614</v>
       </c>
       <c r="F293" s="20"/>
       <c r="G293" s="21"/>
@@ -17922,16 +17880,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D294" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="E294" s="19" t="s">
         <v>615</v>
-      </c>
-      <c r="E294" s="19" t="s">
-        <v>616</v>
       </c>
       <c r="F294" s="20"/>
       <c r="G294" s="21"/>
@@ -17956,16 +17914,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D295" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E295" s="19" t="s">
         <v>617</v>
-      </c>
-      <c r="E295" s="19" t="s">
-        <v>618</v>
       </c>
       <c r="F295" s="20"/>
       <c r="G295" s="21"/>
@@ -17990,16 +17948,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D296" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E296" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="E296" s="19" t="s">
-        <v>620</v>
       </c>
       <c r="F296" s="20"/>
       <c r="G296" s="21"/>
@@ -18024,16 +17982,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D297" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="E297" s="19" t="s">
         <v>621</v>
-      </c>
-      <c r="E297" s="19" t="s">
-        <v>622</v>
       </c>
       <c r="F297" s="20"/>
       <c r="G297" s="21"/>
@@ -18058,16 +18016,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C298" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D298" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="E298" s="19" t="s">
         <v>623</v>
-      </c>
-      <c r="E298" s="19" t="s">
-        <v>624</v>
       </c>
       <c r="F298" s="20"/>
       <c r="G298" s="21"/>
@@ -18092,16 +18050,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D299" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="E299" s="19" t="s">
         <v>625</v>
-      </c>
-      <c r="E299" s="19" t="s">
-        <v>626</v>
       </c>
       <c r="F299" s="20"/>
       <c r="G299" s="21"/>
@@ -18126,16 +18084,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D300" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="E300" s="19" t="s">
         <v>627</v>
-      </c>
-      <c r="E300" s="19" t="s">
-        <v>628</v>
       </c>
       <c r="F300" s="20"/>
       <c r="G300" s="21"/>
@@ -18160,16 +18118,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D301" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="E301" s="19" t="s">
         <v>629</v>
-      </c>
-      <c r="E301" s="19" t="s">
-        <v>630</v>
       </c>
       <c r="F301" s="20"/>
       <c r="G301" s="21"/>
@@ -18194,16 +18152,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D302" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="E302" s="19" t="s">
         <v>631</v>
-      </c>
-      <c r="E302" s="19" t="s">
-        <v>632</v>
       </c>
       <c r="F302" s="20"/>
       <c r="G302" s="21"/>
@@ -18228,16 +18186,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D303" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="E303" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="E303" s="19" t="s">
-        <v>634</v>
       </c>
       <c r="F303" s="20"/>
       <c r="G303" s="21"/>
@@ -18262,16 +18220,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D304" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="E304" s="19" t="s">
         <v>635</v>
-      </c>
-      <c r="E304" s="19" t="s">
-        <v>636</v>
       </c>
       <c r="F304" s="20"/>
       <c r="G304" s="21"/>
@@ -18296,16 +18254,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D305" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E305" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="E305" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="F305" s="20"/>
       <c r="G305" s="21"/>
@@ -18330,16 +18288,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C306" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D306" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="E306" s="19" t="s">
         <v>639</v>
-      </c>
-      <c r="E306" s="19" t="s">
-        <v>640</v>
       </c>
       <c r="F306" s="20"/>
       <c r="G306" s="21"/>
@@ -18364,16 +18322,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C307" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E307" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F307" s="20"/>
       <c r="G307" s="21"/>
@@ -18398,16 +18356,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C308" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D308" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E308" s="19" t="s">
         <v>642</v>
-      </c>
-      <c r="E308" s="19" t="s">
-        <v>643</v>
       </c>
       <c r="F308" s="20"/>
       <c r="G308" s="21"/>
@@ -18432,16 +18390,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D309" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="E309" s="19" t="s">
         <v>644</v>
-      </c>
-      <c r="E309" s="19" t="s">
-        <v>645</v>
       </c>
       <c r="F309" s="20"/>
       <c r="G309" s="21"/>
@@ -18466,16 +18424,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D310" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E310" s="19" t="s">
         <v>646</v>
-      </c>
-      <c r="E310" s="19" t="s">
-        <v>647</v>
       </c>
       <c r="F310" s="20"/>
       <c r="G310" s="21"/>
@@ -18500,16 +18458,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C311" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D311" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="E311" s="19" t="s">
         <v>648</v>
-      </c>
-      <c r="E311" s="19" t="s">
-        <v>649</v>
       </c>
       <c r="F311" s="20"/>
       <c r="G311" s="21"/>
@@ -18534,16 +18492,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C312" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D312" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="E312" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="E312" s="19" t="s">
-        <v>651</v>
       </c>
       <c r="F312" s="20"/>
       <c r="G312" s="21"/>
@@ -18568,16 +18526,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C313" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D313" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="E313" s="19" t="s">
         <v>652</v>
-      </c>
-      <c r="E313" s="19" t="s">
-        <v>653</v>
       </c>
       <c r="F313" s="20"/>
       <c r="G313" s="21"/>
@@ -18602,16 +18560,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C314" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D314" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="E314" s="19" t="s">
         <v>654</v>
-      </c>
-      <c r="E314" s="19" t="s">
-        <v>655</v>
       </c>
       <c r="F314" s="20"/>
       <c r="G314" s="21"/>
@@ -18636,16 +18594,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D315" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="E315" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="E315" s="19" t="s">
-        <v>657</v>
       </c>
       <c r="F315" s="20"/>
       <c r="G315" s="21"/>
@@ -18670,16 +18628,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C316" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D316" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="E316" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="E316" s="19" t="s">
-        <v>659</v>
       </c>
       <c r="F316" s="20"/>
       <c r="G316" s="21"/>
@@ -18704,16 +18662,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D317" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="E317" s="19" t="s">
         <v>660</v>
-      </c>
-      <c r="E317" s="19" t="s">
-        <v>661</v>
       </c>
       <c r="F317" s="20"/>
       <c r="G317" s="21"/>
@@ -18738,16 +18696,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D318" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="E318" s="19" t="s">
         <v>662</v>
-      </c>
-      <c r="E318" s="19" t="s">
-        <v>663</v>
       </c>
       <c r="F318" s="20"/>
       <c r="G318" s="21"/>
@@ -18772,16 +18730,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C319" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D319" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E319" s="19" t="s">
         <v>664</v>
-      </c>
-      <c r="E319" s="19" t="s">
-        <v>665</v>
       </c>
       <c r="F319" s="20"/>
       <c r="G319" s="21"/>
@@ -18806,16 +18764,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C320" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D320" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="E320" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="E320" s="19" t="s">
-        <v>667</v>
       </c>
       <c r="F320" s="20"/>
       <c r="G320" s="21"/>
@@ -18840,16 +18798,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D321" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="E321" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="E321" s="19" t="s">
-        <v>669</v>
       </c>
       <c r="F321" s="20"/>
       <c r="G321" s="21"/>
@@ -18874,16 +18832,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C322" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D322" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="E322" s="19" t="s">
         <v>670</v>
-      </c>
-      <c r="E322" s="19" t="s">
-        <v>671</v>
       </c>
       <c r="F322" s="20"/>
       <c r="G322" s="21"/>
@@ -18908,16 +18866,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E323" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F323" s="20"/>
       <c r="G323" s="21"/>
@@ -18942,16 +18900,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C324" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D324" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E324" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E324" s="19" t="s">
-        <v>674</v>
       </c>
       <c r="F324" s="20"/>
       <c r="G324" s="21"/>
@@ -18976,16 +18934,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D325" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="E325" s="19" t="s">
         <v>675</v>
-      </c>
-      <c r="E325" s="19" t="s">
-        <v>676</v>
       </c>
       <c r="F325" s="20"/>
       <c r="G325" s="21"/>
@@ -19010,16 +18968,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D326" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="E326" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="E326" s="19" t="s">
-        <v>678</v>
       </c>
       <c r="F326" s="20"/>
       <c r="G326" s="21"/>
@@ -19044,16 +19002,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C327" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D327" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="E327" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="E327" s="19" t="s">
-        <v>680</v>
       </c>
       <c r="F327" s="20"/>
       <c r="G327" s="21"/>
@@ -19078,16 +19036,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C328" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D328" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="E328" s="19" t="s">
         <v>681</v>
-      </c>
-      <c r="E328" s="19" t="s">
-        <v>682</v>
       </c>
       <c r="F328" s="20"/>
       <c r="G328" s="21"/>
@@ -19112,16 +19070,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C329" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D329" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="E329" s="19" t="s">
         <v>683</v>
-      </c>
-      <c r="E329" s="19" t="s">
-        <v>684</v>
       </c>
       <c r="F329" s="20"/>
       <c r="G329" s="21"/>
@@ -19146,16 +19104,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C330" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D330" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E330" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="E330" s="19" t="s">
-        <v>686</v>
       </c>
       <c r="F330" s="20"/>
       <c r="G330" s="21"/>
@@ -19180,16 +19138,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C331" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D331" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="E331" s="19" t="s">
         <v>687</v>
-      </c>
-      <c r="E331" s="19" t="s">
-        <v>688</v>
       </c>
       <c r="F331" s="20"/>
       <c r="G331" s="21"/>
@@ -19214,16 +19172,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D332" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="E332" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="E332" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="F332" s="20"/>
       <c r="G332" s="21"/>
@@ -19248,16 +19206,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D333" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="E333" s="19" t="s">
         <v>691</v>
-      </c>
-      <c r="E333" s="19" t="s">
-        <v>692</v>
       </c>
       <c r="F333" s="20"/>
       <c r="G333" s="21"/>
@@ -19282,16 +19240,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D334" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="E334" s="19" t="s">
         <v>693</v>
-      </c>
-      <c r="E334" s="19" t="s">
-        <v>694</v>
       </c>
       <c r="F334" s="20"/>
       <c r="G334" s="21"/>
@@ -19316,16 +19274,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D335" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="E335" s="19" t="s">
         <v>695</v>
-      </c>
-      <c r="E335" s="19" t="s">
-        <v>696</v>
       </c>
       <c r="F335" s="20"/>
       <c r="G335" s="21"/>
@@ -19350,16 +19308,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D336" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="E336" s="19" t="s">
         <v>697</v>
-      </c>
-      <c r="E336" s="19" t="s">
-        <v>698</v>
       </c>
       <c r="F336" s="20"/>
       <c r="G336" s="21"/>
@@ -19384,16 +19342,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D337" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="E337" s="19" t="s">
         <v>699</v>
-      </c>
-      <c r="E337" s="19" t="s">
-        <v>700</v>
       </c>
       <c r="F337" s="20"/>
       <c r="G337" s="21"/>
@@ -19418,16 +19376,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D338" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="E338" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="E338" s="19" t="s">
-        <v>702</v>
       </c>
       <c r="F338" s="20"/>
       <c r="G338" s="21"/>
@@ -19452,16 +19410,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D339" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="E339" s="19" t="s">
         <v>703</v>
-      </c>
-      <c r="E339" s="19" t="s">
-        <v>704</v>
       </c>
       <c r="F339" s="20"/>
       <c r="G339" s="21"/>
@@ -19486,16 +19444,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D340" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="E340" s="19" t="s">
         <v>705</v>
-      </c>
-      <c r="E340" s="19" t="s">
-        <v>706</v>
       </c>
       <c r="F340" s="20"/>
       <c r="G340" s="21"/>
@@ -19520,16 +19478,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C341" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D341" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="E341" s="19" t="s">
         <v>707</v>
-      </c>
-      <c r="E341" s="19" t="s">
-        <v>708</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="21"/>
@@ -19554,16 +19512,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C342" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D342" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="E342" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="E342" s="19" t="s">
-        <v>710</v>
       </c>
       <c r="F342" s="20"/>
       <c r="G342" s="21"/>
@@ -19588,16 +19546,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C343" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D343" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="E343" s="19" t="s">
         <v>711</v>
-      </c>
-      <c r="E343" s="19" t="s">
-        <v>712</v>
       </c>
       <c r="F343" s="20"/>
       <c r="G343" s="21"/>
@@ -19622,16 +19580,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C344" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D344" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="E344" s="19" t="s">
         <v>713</v>
-      </c>
-      <c r="E344" s="19" t="s">
-        <v>714</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="21"/>
@@ -19656,16 +19614,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C345" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D345" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="E345" s="19" t="s">
         <v>715</v>
-      </c>
-      <c r="E345" s="19" t="s">
-        <v>716</v>
       </c>
       <c r="F345" s="20"/>
       <c r="G345" s="21"/>
@@ -19690,16 +19648,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C346" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D346" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="E346" s="19" t="s">
         <v>717</v>
-      </c>
-      <c r="E346" s="19" t="s">
-        <v>718</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="21"/>
@@ -19724,16 +19682,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C347" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D347" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="E347" s="19" t="s">
         <v>719</v>
-      </c>
-      <c r="E347" s="19" t="s">
-        <v>720</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="21"/>
@@ -19758,16 +19716,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C348" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D348" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="E348" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="E348" s="19" t="s">
-        <v>722</v>
       </c>
       <c r="F348" s="20"/>
       <c r="G348" s="21"/>
@@ -19792,16 +19750,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C349" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D349" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="E349" s="19" t="s">
         <v>723</v>
-      </c>
-      <c r="E349" s="19" t="s">
-        <v>724</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="21"/>
@@ -19826,16 +19784,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C350" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D350" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="E350" s="19" t="s">
         <v>725</v>
-      </c>
-      <c r="E350" s="19" t="s">
-        <v>726</v>
       </c>
       <c r="F350" s="20"/>
       <c r="G350" s="21"/>
@@ -19860,16 +19818,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D351" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="E351" s="19" t="s">
         <v>727</v>
-      </c>
-      <c r="E351" s="19" t="s">
-        <v>728</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="21"/>
@@ -19894,16 +19852,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C352" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D352" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="E352" s="19" t="s">
         <v>729</v>
-      </c>
-      <c r="E352" s="19" t="s">
-        <v>730</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="21"/>
@@ -19928,16 +19886,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C353" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D353" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="E353" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="E353" s="19" t="s">
-        <v>732</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="21"/>
@@ -19962,16 +19920,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C354" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D354" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E354" s="19" t="s">
         <v>733</v>
-      </c>
-      <c r="E354" s="19" t="s">
-        <v>734</v>
       </c>
       <c r="F354" s="20"/>
       <c r="G354" s="21"/>
@@ -19996,16 +19954,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C355" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D355" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="E355" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="E355" s="19" t="s">
-        <v>736</v>
       </c>
       <c r="F355" s="20"/>
       <c r="G355" s="21"/>
@@ -20030,16 +19988,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C356" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D356" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="E356" s="19" t="s">
         <v>737</v>
-      </c>
-      <c r="E356" s="19" t="s">
-        <v>738</v>
       </c>
       <c r="F356" s="20"/>
       <c r="G356" s="21"/>
@@ -20064,16 +20022,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D357" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="E357" s="19" t="s">
         <v>739</v>
-      </c>
-      <c r="E357" s="19" t="s">
-        <v>740</v>
       </c>
       <c r="F357" s="20"/>
       <c r="G357" s="21"/>
@@ -20098,16 +20056,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D358" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="E358" s="19" t="s">
         <v>741</v>
-      </c>
-      <c r="E358" s="19" t="s">
-        <v>742</v>
       </c>
       <c r="F358" s="20"/>
       <c r="G358" s="21"/>
@@ -20132,16 +20090,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D359" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="E359" s="19" t="s">
         <v>743</v>
-      </c>
-      <c r="E359" s="19" t="s">
-        <v>744</v>
       </c>
       <c r="F359" s="20"/>
       <c r="G359" s="21"/>
@@ -20166,16 +20124,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C360" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D360" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="E360" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="E360" s="19" t="s">
-        <v>746</v>
       </c>
       <c r="F360" s="20"/>
       <c r="G360" s="21"/>
@@ -20200,16 +20158,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C361" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D361" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="E361" s="19" t="s">
         <v>747</v>
-      </c>
-      <c r="E361" s="19" t="s">
-        <v>748</v>
       </c>
       <c r="F361" s="20"/>
       <c r="G361" s="21"/>
@@ -20234,16 +20192,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C362" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D362" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="E362" s="19" t="s">
         <v>749</v>
-      </c>
-      <c r="E362" s="19" t="s">
-        <v>750</v>
       </c>
       <c r="F362" s="20"/>
       <c r="G362" s="21"/>
@@ -20268,16 +20226,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C363" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D363" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="E363" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="E363" s="19" t="s">
-        <v>752</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="21"/>
@@ -20302,16 +20260,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C364" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D364" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E364" s="19" t="s">
         <v>753</v>
-      </c>
-      <c r="E364" s="19" t="s">
-        <v>754</v>
       </c>
       <c r="F364" s="20"/>
       <c r="G364" s="21"/>
@@ -20336,16 +20294,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C365" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D365" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="E365" s="19" t="s">
         <v>755</v>
-      </c>
-      <c r="E365" s="19" t="s">
-        <v>756</v>
       </c>
       <c r="F365" s="20"/>
       <c r="G365" s="21"/>
@@ -20370,16 +20328,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C366" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D366" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="E366" s="19" t="s">
         <v>757</v>
-      </c>
-      <c r="E366" s="19" t="s">
-        <v>758</v>
       </c>
       <c r="F366" s="20"/>
       <c r="G366" s="21"/>
@@ -20404,16 +20362,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C367" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D367" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="E367" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="E367" s="19" t="s">
-        <v>760</v>
       </c>
       <c r="F367" s="20"/>
       <c r="G367" s="21"/>
@@ -20438,16 +20396,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C368" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D368" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="E368" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="E368" s="19" t="s">
-        <v>762</v>
       </c>
       <c r="F368" s="20"/>
       <c r="G368" s="21"/>
@@ -20472,16 +20430,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C369" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D369" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="E369" s="19" t="s">
         <v>763</v>
-      </c>
-      <c r="E369" s="19" t="s">
-        <v>764</v>
       </c>
       <c r="F369" s="20"/>
       <c r="G369" s="21"/>
@@ -20506,16 +20464,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C370" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D370" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="E370" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="E370" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="F370" s="20"/>
       <c r="G370" s="21"/>
@@ -20540,16 +20498,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C371" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D371" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="E371" s="19" t="s">
         <v>767</v>
-      </c>
-      <c r="E371" s="19" t="s">
-        <v>768</v>
       </c>
       <c r="F371" s="20"/>
       <c r="G371" s="21"/>
@@ -20574,16 +20532,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C372" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D372" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E372" s="19" t="s">
         <v>769</v>
-      </c>
-      <c r="E372" s="19" t="s">
-        <v>770</v>
       </c>
       <c r="F372" s="20"/>
       <c r="G372" s="21"/>
@@ -20608,16 +20566,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D373" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E373" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="E373" s="19" t="s">
-        <v>772</v>
       </c>
       <c r="F373" s="20"/>
       <c r="G373" s="21"/>
@@ -20642,16 +20600,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C374" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D374" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E374" s="19" t="s">
         <v>773</v>
-      </c>
-      <c r="E374" s="19" t="s">
-        <v>774</v>
       </c>
       <c r="F374" s="20"/>
       <c r="G374" s="21"/>
@@ -20682,10 +20640,10 @@
         <v>44</v>
       </c>
       <c r="D375" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="E375" s="19" t="s">
         <v>775</v>
-      </c>
-      <c r="E375" s="19" t="s">
-        <v>776</v>
       </c>
       <c r="F375" s="20"/>
       <c r="G375" s="21"/>
@@ -20716,25 +20674,25 @@
         <v>56</v>
       </c>
       <c r="D376" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="E376" s="19" t="s">
         <v>777</v>
-      </c>
-      <c r="E376" s="19" t="s">
-        <v>778</v>
       </c>
       <c r="F376" s="20">
         <v>45209</v>
       </c>
       <c r="G376" s="21" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H376" s="21" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="I376" s="21" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="J376" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K376" s="22"/>
       <c r="L376" s="22"/>
@@ -20760,10 +20718,10 @@
         <v>65</v>
       </c>
       <c r="D377" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="E377" s="19" t="s">
         <v>779</v>
-      </c>
-      <c r="E377" s="19" t="s">
-        <v>780</v>
       </c>
       <c r="F377" s="20"/>
       <c r="G377" s="21"/>
@@ -20794,10 +20752,10 @@
         <v>74</v>
       </c>
       <c r="D378" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="E378" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="E378" s="19" t="s">
-        <v>782</v>
       </c>
       <c r="F378" s="20"/>
       <c r="G378" s="21"/>
@@ -20828,10 +20786,10 @@
         <v>83</v>
       </c>
       <c r="D379" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="E379" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="E379" s="19" t="s">
-        <v>784</v>
       </c>
       <c r="F379" s="20"/>
       <c r="G379" s="21"/>
@@ -20862,10 +20820,10 @@
         <v>92</v>
       </c>
       <c r="D380" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="E380" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="E380" s="19" t="s">
-        <v>786</v>
       </c>
       <c r="F380" s="20"/>
       <c r="G380" s="21"/>
@@ -20893,13 +20851,13 @@
         <v>43</v>
       </c>
       <c r="C381" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D381" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="E381" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="E381" s="19" t="s">
-        <v>788</v>
       </c>
       <c r="F381" s="20"/>
       <c r="G381" s="21"/>
@@ -20927,13 +20885,13 @@
         <v>43</v>
       </c>
       <c r="C382" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D382" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="E382" s="19" t="s">
         <v>789</v>
-      </c>
-      <c r="E382" s="19" t="s">
-        <v>790</v>
       </c>
       <c r="F382" s="20"/>
       <c r="G382" s="21"/>
@@ -20964,10 +20922,10 @@
         <v>44</v>
       </c>
       <c r="D383" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E383" s="19" t="s">
         <v>791</v>
-      </c>
-      <c r="E383" s="19" t="s">
-        <v>792</v>
       </c>
       <c r="F383" s="20"/>
       <c r="G383" s="21"/>
@@ -25710,10 +25668,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>793</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -25721,13 +25679,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>796</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -25735,13 +25693,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>798</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -25749,13 +25707,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>800</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -25763,13 +25721,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>802</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -25777,13 +25735,13 @@
         <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>804</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4">
@@ -25791,55 +25749,55 @@
         <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>806</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>808</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>810</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>813</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -25847,13 +25805,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C11" s="27">
         <v>192</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -25861,13 +25819,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" s="27">
         <v>208</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -25875,13 +25833,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" s="27">
         <v>224</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -25889,13 +25847,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="27">
         <v>240</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -25903,13 +25861,13 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C15" s="27">
         <v>256</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -25917,41 +25875,41 @@
         <v>92</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="27">
         <v>272</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="27">
         <v>288</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="27">
         <v>304</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -25959,13 +25917,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C19" s="27">
         <v>193</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -25973,13 +25931,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C20" s="27">
         <v>209</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -25987,13 +25945,13 @@
         <v>65</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C21" s="27">
         <v>225</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -26001,13 +25959,13 @@
         <v>74</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C22" s="27">
         <v>241</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -26015,13 +25973,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C23" s="27">
         <v>257</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -26029,41 +25987,41 @@
         <v>92</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C24" s="27">
         <v>273</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C25" s="27">
         <v>289</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C26" s="27">
         <v>305</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -26071,13 +26029,13 @@
         <v>44</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C27" s="27">
         <v>194</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -26085,13 +26043,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C28" s="27">
         <v>210</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -26099,13 +26057,13 @@
         <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C29" s="27">
         <v>226</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -26113,13 +26071,13 @@
         <v>74</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C30" s="27">
         <v>242</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -26127,13 +26085,13 @@
         <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C31" s="27">
         <v>258</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -26141,41 +26099,41 @@
         <v>92</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C32" s="27">
         <v>274</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C33" s="27">
         <v>290</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C34" s="27">
         <v>306</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -26183,7 +26141,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C35" s="27">
         <v>195</v>
@@ -26197,7 +26155,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C36" s="27">
         <v>211</v>
@@ -26211,7 +26169,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C37" s="27">
         <v>227</v>
@@ -26225,7 +26183,7 @@
         <v>74</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C38" s="27">
         <v>243</v>
@@ -26239,7 +26197,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C39" s="27">
         <v>259</v>
@@ -26253,7 +26211,7 @@
         <v>92</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C40" s="27">
         <v>275</v>
@@ -26264,10 +26222,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C41" s="27">
         <v>291</v>
@@ -26278,10 +26236,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C42" s="27">
         <v>307</v>
@@ -26295,7 +26253,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C43" s="27">
         <v>196</v>
@@ -26309,7 +26267,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C44" s="27">
         <v>212</v>
@@ -26323,7 +26281,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C45" s="27">
         <v>228</v>
@@ -26337,7 +26295,7 @@
         <v>74</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C46" s="27">
         <v>244</v>
@@ -26351,7 +26309,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C47" s="27">
         <v>260</v>
@@ -26365,7 +26323,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C48" s="27">
         <v>276</v>
@@ -26376,10 +26334,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C49" s="27">
         <v>292</v>
@@ -26390,10 +26348,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C50" s="27">
         <v>308</v>
@@ -27381,18 +27339,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/ADTWEB_SISaR_RAS/20.14/accreditamento-checklist_ADTWEB_SISaR_RAS_V8.1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111DEDALUSXXX\Regione_Sardegna\ADTWEB_SISaR_RAS\20.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c3e8a3d39349f15/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A02EF2-D045-43C0-A86C-7BF748DD2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{03A02EF2-D045-43C0-A86C-7BF748DD2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71F6D4C-BC85-4B0C-ADA8-F1B0201ADCE9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4475,42 +4475,6 @@
     </t>
   </si>
   <si>
-    <t>2023-10-06T07:17:50Z</t>
-  </si>
-  <si>
-    <t>34ded2a8a9e31ecb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.c294453787367e109f0424ae0f1bd0e3b160950cb0d0b0e8e7b1cae35e9bc1b9.518b0d890c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c9fcee457a3e46d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.a2b837d71d9846422018bf42475fc0eed16b1dd0387f3b331244f9a5f4c0a609.b1986759d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-09T13:48:19Z</t>
-  </si>
-  <si>
-    <t>2023-10-06T14:57:38Z</t>
-  </si>
-  <si>
-    <t>439b3e963308c235</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.d95e8392891029f11d5bde454cfeddeae3b593a16388e30df0c4462bf3f5c49e.59d4b31832^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8a2dc39d901b8d9f</t>
-  </si>
-  <si>
-    <t>2023-10-09T15:35:44Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.240e9ef6497bb0980a66abdad76ac7ebb49878c4229072bb598ea7adcee6a06f.936fc4fc8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -4683,6 +4647,42 @@
   </si>
   <si>
     <t>0109cd20852beb1a</t>
+  </si>
+  <si>
+    <t>2023-11-28T10:56:300Z</t>
+  </si>
+  <si>
+    <t>e3289a97b4d49f26</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.22293c37d6643ca99f42720af0604a7632bd2f128c4acc26c382a8b722ac426a.ba846a4bdf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T11:01:48Z</t>
+  </si>
+  <si>
+    <t>c17b350cc8e06e9f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.048af097534ab460aeac4f6b62282c7401a1131e89f79aeffbe70b9c27cdc33c.1b37960f43^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T11:04:11Z</t>
+  </si>
+  <si>
+    <t>f28616dcf3338b19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.7e5c8ad08736e626b725480cd661cff0f6e6d9f9ed932dce29b910b08327661c.792a422068^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T11:06:15Z</t>
+  </si>
+  <si>
+    <t>a02183775d0d5ee7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.ade6982d3d5fcd7386d13ec0d40815f092750fcf4c5af46729e7af1062a4faa2.0a7896eeae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7631,10 +7631,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8074,16 +8074,16 @@
         <v>58</v>
       </c>
       <c r="F15" s="20">
-        <v>45205</v>
+        <v>45258</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>851</v>
+        <v>909</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>852</v>
+        <v>910</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>853</v>
+        <v>911</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>136</v>
@@ -8118,16 +8118,16 @@
         <v>60</v>
       </c>
       <c r="F16" s="20">
-        <v>45205</v>
+        <v>45258</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>857</v>
+        <v>912</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>854</v>
+        <v>913</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>855</v>
+        <v>914</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>136</v>
@@ -8145,7 +8145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="151.80000000000001" customHeight="1">
+    <row r="17" spans="1:20" ht="151.80000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -8162,16 +8162,16 @@
         <v>62</v>
       </c>
       <c r="F17" s="20">
-        <v>45208</v>
+        <v>45258</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>856</v>
+        <v>915</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>858</v>
+        <v>916</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>136</v>
@@ -8206,16 +8206,16 @@
         <v>64</v>
       </c>
       <c r="F18" s="20">
-        <v>45208</v>
+        <v>45258</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>862</v>
+        <v>920</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>136</v>
@@ -8831,13 +8831,13 @@
         <v>45208</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>136</v>
@@ -8854,7 +8854,7 @@
         <v>136</v>
       </c>
       <c r="P36" s="40" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="23"/>
@@ -8888,11 +8888,11 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="36" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
@@ -8926,11 +8926,11 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="36" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
@@ -9129,13 +9129,13 @@
         <v>45208</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>136</v>
@@ -9152,7 +9152,7 @@
         <v>136</v>
       </c>
       <c r="P44" s="40" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="Q44" s="22"/>
       <c r="R44" s="23"/>
@@ -9436,7 +9436,7 @@
         <v>136</v>
       </c>
       <c r="P52" s="40" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="23" t="s">
@@ -10057,13 +10057,13 @@
         <v>45209</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="J70" s="22" t="s">
         <v>136</v>
@@ -10080,7 +10080,7 @@
         <v>136</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="Q70" s="22"/>
       <c r="R70" s="23"/>
@@ -10109,13 +10109,13 @@
         <v>45209</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="J71" s="22" t="s">
         <v>136</v>
@@ -10128,13 +10128,13 @@
         <v>136</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="O71" s="22" t="s">
         <v>845</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="Q71" s="22"/>
       <c r="R71" s="23"/>
@@ -10163,13 +10163,13 @@
         <v>45209</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="J72" s="22" t="s">
         <v>136</v>
@@ -10186,7 +10186,7 @@
         <v>136</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="Q72" s="22"/>
       <c r="R72" s="23"/>
@@ -10215,13 +10215,13 @@
         <v>45209</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="J73" s="22" t="s">
         <v>136</v>
@@ -10234,13 +10234,13 @@
         <v>136</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="O73" s="22" t="s">
         <v>845</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="Q73" s="22"/>
       <c r="R73" s="23"/>
@@ -10269,13 +10269,13 @@
         <v>45209</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="J74" s="22" t="s">
         <v>136</v>
@@ -10288,13 +10288,13 @@
         <v>136</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="O74" s="22" t="s">
         <v>845</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="Q74" s="22"/>
       <c r="R74" s="23"/>
@@ -10323,13 +10323,13 @@
         <v>45209</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="J75" s="22" t="s">
         <v>136</v>
@@ -10346,7 +10346,7 @@
         <v>845</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="Q75" s="22"/>
       <c r="R75" s="23"/>
@@ -10375,13 +10375,13 @@
         <v>45209</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="J76" s="22" t="s">
         <v>136</v>
@@ -10398,7 +10398,7 @@
         <v>845</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="Q76" s="22"/>
       <c r="R76" s="23"/>
@@ -10427,13 +10427,13 @@
         <v>45209</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="J77" s="22" t="s">
         <v>136</v>
@@ -10450,7 +10450,7 @@
         <v>845</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="Q77" s="22"/>
       <c r="R77" s="23"/>
@@ -10479,13 +10479,13 @@
         <v>45209</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>136</v>
@@ -10502,7 +10502,7 @@
         <v>845</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="Q78" s="22"/>
       <c r="R78" s="23"/>
@@ -10531,13 +10531,13 @@
         <v>45209</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>136</v>
@@ -10554,7 +10554,7 @@
         <v>845</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="Q79" s="22"/>
       <c r="R79" s="23"/>
@@ -10583,13 +10583,13 @@
         <v>45209</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>136</v>
@@ -10606,7 +10606,7 @@
         <v>845</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="Q80" s="22"/>
       <c r="R80" s="23"/>
@@ -10635,13 +10635,13 @@
         <v>45209</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="J81" s="22" t="s">
         <v>136</v>
@@ -10658,7 +10658,7 @@
         <v>845</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="Q81" s="22"/>
       <c r="R81" s="23"/>
@@ -20683,13 +20683,13 @@
         <v>45209</v>
       </c>
       <c r="G376" s="21" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="H376" s="21" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="I376" s="21" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="J376" s="22" t="s">
         <v>136</v>
@@ -28361,4 +28361,298 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B0B21D7C87FDA4AB48A2A5274B76D59" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bcd25b6d692e609784cef5e62ac1ef9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f727d03-77e6-4ed8-b686-bfc5a8681394" xmlns:ns3="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd1e099223e11c426947ce331df957f" ns2:_="" ns3:_="">
+    <xsd:import namespace="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+    <xsd:import namespace="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f727d03-77e6-4ed8-b686-bfc5a8681394" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="12" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75269196-3c19-4658-8e5b-4d6cc1d35d9f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6cf10b6-6eee-4c8c-b097-7b28115a0c6e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F16320-CD99-4526-A729-FC713813E82E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CC3F6C6-024D-427C-98D6-D1160244531B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA464918-DA72-482B-A17F-678AEDA4C524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>